--- a/data/hanzo-cloud/hanzo-starter-log_structure.xlsx
+++ b/data/hanzo-cloud/hanzo-starter-log_structure.xlsx
@@ -366,12 +366,12 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>commonLogProvider</t>
+  </si>
+  <si>
     <t>logProperties</t>
   </si>
   <si>
-    <t>commonLogProvider</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -384,55 +384,55 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>MAP_COPY_OPERATION</t>
+  </si>
+  <si>
     <t>lastOperation</t>
   </si>
   <si>
     <t>java.lang.ThreadLocal</t>
   </si>
   <si>
-    <t>MAP_COPY_OPERATION</t>
+    <t>copyOnInheritThreadLocal</t>
   </si>
   <si>
     <t>WRITE_OPERATION</t>
   </si>
   <si>
-    <t>copyOnInheritThreadLocal</t>
-  </si>
-  <si>
     <t>mtcMDCAdapter</t>
   </si>
   <si>
+    <t>applicationContext</t>
+  </si>
+  <si>
+    <t>org.springframework.context.ApplicationContext</t>
+  </si>
+  <si>
     <t>PARAMETER_NAME_DISCOVERER</t>
   </si>
   <si>
     <t>org.springframework.core.ParameterNameDiscoverer</t>
   </si>
   <si>
-    <t>applicationContext</t>
-  </si>
-  <si>
-    <t>org.springframework.context.ApplicationContext</t>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
   </si>
   <si>
     <t>RABBITMQ</t>
   </si>
   <si>
-    <t>$VALUES</t>
+    <t>KAFKA</t>
   </si>
   <si>
     <t>ROCKETMQ</t>
   </si>
   <si>
-    <t>KAFKA</t>
-  </si>
-  <si>
-    <t>LOCAL</t>
+    <t>logMqType</t>
   </si>
   <si>
     <t>PREFIX</t>
-  </si>
-  <si>
-    <t>logMqType</t>
   </si>
   <si>
     <t>enable</t>
@@ -3858,7 +3858,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -3872,7 +3872,7 @@
         <v>45</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>38</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -3928,7 +3928,7 @@
         <v>45</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -3936,13 +3936,13 @@
         <v>46</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>45</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
@@ -3956,7 +3956,7 @@
         <v>45</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -3970,7 +3970,7 @@
         <v>45</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -4051,10 +4051,10 @@
         <v>130</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -4065,10 +4065,10 @@
         <v>131</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -4121,10 +4121,10 @@
         <v>135</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -4135,10 +4135,10 @@
         <v>136</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -4166,7 +4166,7 @@
         <v>45</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -4180,7 +4180,7 @@
         <v>45</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>38</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
